--- a/backtest_GBPUSD-OTC_60s.xlsx
+++ b/backtest_GBPUSD-OTC_60s.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46012.26527777778</v>
+        <v>46013.00694444445</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -489,29 +489,29 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.344055</v>
+        <v>1.326735</v>
       </c>
       <c r="D2" t="n">
-        <v>1.343865</v>
+        <v>1.327295</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H2" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>46012.26666666667</v>
+        <v>46013.00972222222</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.343635</v>
+        <v>1.327615</v>
       </c>
       <c r="D3" t="n">
-        <v>1.343105</v>
+        <v>1.327165</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -536,23 +536,23 @@
         <v>0.87</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.13</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>46012.26875</v>
+        <v>46013.01180555556</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.343215</v>
+        <v>1.327175</v>
       </c>
       <c r="D4" t="n">
-        <v>1.342655</v>
+        <v>1.327545</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -566,23 +566,23 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.13</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46012.26944444444</v>
+        <v>46013.0125</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.342665</v>
+        <v>1.327545</v>
       </c>
       <c r="D5" t="n">
-        <v>1.342355</v>
+        <v>1.327685</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -596,12 +596,12 @@
         <v>0.87</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2599999999999999</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46012.27083333334</v>
+        <v>46013.01944444444</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -609,29 +609,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.342615</v>
+        <v>1.329135</v>
       </c>
       <c r="D6" t="n">
-        <v>1.341935</v>
+        <v>1.329185</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.26</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46012.27152777778</v>
+        <v>46013.02013888889</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -639,40 +639,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.341985</v>
+        <v>1.329245</v>
       </c>
       <c r="D7" t="n">
-        <v>1.342105</v>
+        <v>1.328835</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.26</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46012.28472222222</v>
+        <v>46013.02638888889</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.342035</v>
+        <v>1.328725</v>
       </c>
       <c r="D8" t="n">
-        <v>1.341705</v>
+        <v>1.329085</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -686,12 +686,12 @@
         <v>0.87</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.39</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46012.28680555556</v>
+        <v>46013.02847222222</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.341785</v>
+        <v>1.329165</v>
       </c>
       <c r="D9" t="n">
-        <v>1.341475</v>
+        <v>1.329065</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -716,53 +716,53 @@
         <v>0.87</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5199999999999997</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46012.2875</v>
+        <v>46013.02986111111</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.341495</v>
+        <v>1.329335</v>
       </c>
       <c r="D10" t="n">
-        <v>1.341835</v>
+        <v>1.329595</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.52</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46012.28819444445</v>
+        <v>46013.03194444445</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.341835</v>
+        <v>1.329605</v>
       </c>
       <c r="D11" t="n">
-        <v>1.341605</v>
+        <v>1.329645</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -776,12 +776,12 @@
         <v>-1</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.52</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46012.29791666667</v>
+        <v>46013.03263888889</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.343315</v>
+        <v>1.329665</v>
       </c>
       <c r="D12" t="n">
-        <v>1.343655</v>
+        <v>1.330405</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -806,23 +806,23 @@
         <v>0.87</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.649999999999999</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46012.29930555556</v>
+        <v>46013.03333333333</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.343325</v>
+        <v>1.330435</v>
       </c>
       <c r="D13" t="n">
-        <v>1.343185</v>
+        <v>1.330905</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -836,12 +836,12 @@
         <v>0.87</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.7799999999999995</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46012.30416666667</v>
+        <v>46013.03541666667</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.342905</v>
+        <v>1.330455</v>
       </c>
       <c r="D14" t="n">
-        <v>1.343245</v>
+        <v>1.330575</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -866,12 +866,12 @@
         <v>0.87</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09000000000000052</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46012.30625</v>
+        <v>46013.03680555556</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.343295</v>
+        <v>1.330665</v>
       </c>
       <c r="D15" t="n">
-        <v>1.343725</v>
+        <v>1.330985</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -896,72 +896,72 @@
         <v>0.87</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9600000000000005</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46012.30902777778</v>
+        <v>46013.03819444445</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.343955</v>
+        <v>1.330785</v>
       </c>
       <c r="D16" t="n">
-        <v>1.343465</v>
+        <v>1.330365</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03999999999999948</v>
+        <v>9.309999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46012.31041666667</v>
+        <v>46013.04166666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.343855</v>
+        <v>1.330055</v>
       </c>
       <c r="D17" t="n">
-        <v>1.344175</v>
+        <v>1.330675</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8300000000000005</v>
+        <v>8.309999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46012.3125</v>
+        <v>46013.04236111111</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -969,29 +969,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.344375</v>
+        <v>1.330665</v>
       </c>
       <c r="D18" t="n">
-        <v>1.343745</v>
+        <v>1.330805</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1699999999999995</v>
+        <v>9.179999999999998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46012.31736111111</v>
+        <v>46013.04375</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -999,29 +999,29 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.342365</v>
+        <v>1.330415</v>
       </c>
       <c r="D19" t="n">
-        <v>1.342405</v>
+        <v>1.330375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.169999999999999</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46012.32013888889</v>
+        <v>46013.05</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.342295</v>
+        <v>1.330155</v>
       </c>
       <c r="D20" t="n">
-        <v>1.342375</v>
+        <v>1.330605</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1046,12 +1046,12 @@
         <v>0.87</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2999999999999995</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46012.32291666666</v>
+        <v>46013.05208333334</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.342335</v>
+        <v>1.330415</v>
       </c>
       <c r="D21" t="n">
-        <v>1.342005</v>
+        <v>1.329765</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1076,12 +1076,12 @@
         <v>0.87</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5700000000000005</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46012.32569444444</v>
+        <v>46013.05416666667</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1089,29 +1089,29 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.341235</v>
+        <v>1.329475</v>
       </c>
       <c r="D22" t="n">
-        <v>1.341315</v>
+        <v>1.328975</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.4299999999999995</v>
+        <v>12.65999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46012.32777777778</v>
+        <v>46013.05902777778</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.341275</v>
+        <v>1.328375</v>
       </c>
       <c r="D23" t="n">
-        <v>1.340785</v>
+        <v>1.327805</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1136,12 +1136,12 @@
         <v>0.87</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4400000000000005</v>
+        <v>13.52999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46012.32986111111</v>
+        <v>46013.0625</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.341115</v>
+        <v>1.328105</v>
       </c>
       <c r="D24" t="n">
-        <v>1.341245</v>
+        <v>1.328995</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1166,12 +1166,12 @@
         <v>0.87</v>
       </c>
       <c r="H24" t="n">
-        <v>1.31</v>
+        <v>14.39999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46012.33194444444</v>
+        <v>46013.06666666667</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1179,10 +1179,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.341565</v>
+        <v>1.328715</v>
       </c>
       <c r="D25" t="n">
-        <v>1.341605</v>
+        <v>1.328795</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1196,12 +1196,12 @@
         <v>0.87</v>
       </c>
       <c r="H25" t="n">
-        <v>2.180000000000001</v>
+        <v>15.26999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46012.33611111111</v>
+        <v>46013.06944444445</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.342505</v>
+        <v>1.328765</v>
       </c>
       <c r="D26" t="n">
-        <v>1.342385</v>
+        <v>1.328385</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1226,12 +1226,12 @@
         <v>0.87</v>
       </c>
       <c r="H26" t="n">
-        <v>3.050000000000001</v>
+        <v>16.13999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46012.34513888889</v>
+        <v>46013.07291666666</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.342685</v>
+        <v>1.328705</v>
       </c>
       <c r="D27" t="n">
-        <v>1.342965</v>
+        <v>1.328885</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1256,23 +1256,23 @@
         <v>0.87</v>
       </c>
       <c r="H27" t="n">
-        <v>3.920000000000001</v>
+        <v>17.00999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46012.34722222222</v>
+        <v>46013.07569444444</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.342665</v>
+        <v>1.328745</v>
       </c>
       <c r="D28" t="n">
-        <v>1.342875</v>
+        <v>1.328695</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1286,12 +1286,12 @@
         <v>0.87</v>
       </c>
       <c r="H28" t="n">
-        <v>4.790000000000001</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46012.35</v>
+        <v>46013.07708333333</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1299,40 +1299,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.343165</v>
+        <v>1.328805</v>
       </c>
       <c r="D29" t="n">
-        <v>1.343165</v>
+        <v>1.328905</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H29" t="n">
-        <v>3.790000000000001</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46012.35347222222</v>
+        <v>46013.07916666667</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.342455</v>
+        <v>1.329415</v>
       </c>
       <c r="D30" t="n">
-        <v>1.342385</v>
+        <v>1.329795</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1346,23 +1346,23 @@
         <v>0.87</v>
       </c>
       <c r="H30" t="n">
-        <v>4.660000000000001</v>
+        <v>19.62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46012.35555555556</v>
+        <v>46013.08055555556</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.342515</v>
+        <v>1.329525</v>
       </c>
       <c r="D31" t="n">
-        <v>1.342735</v>
+        <v>1.328915</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1376,12 +1376,12 @@
         <v>0.87</v>
       </c>
       <c r="H31" t="n">
-        <v>5.530000000000001</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46012.35833333333</v>
+        <v>46013.08263888889</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.342215</v>
+        <v>1.329035</v>
       </c>
       <c r="D32" t="n">
-        <v>1.342085</v>
+        <v>1.329065</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H32" t="n">
-        <v>4.530000000000001</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46012.35972222222</v>
+        <v>46013.08611111111</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.341555</v>
+        <v>1.328565</v>
       </c>
       <c r="D33" t="n">
-        <v>1.340845</v>
+        <v>1.328315</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1436,12 +1436,12 @@
         <v>0.87</v>
       </c>
       <c r="H33" t="n">
-        <v>5.400000000000001</v>
+        <v>22.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46012.36180555556</v>
+        <v>46013.08958333333</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1449,40 +1449,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.340645</v>
+        <v>1.326555</v>
       </c>
       <c r="D34" t="n">
-        <v>1.340385</v>
+        <v>1.327075</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H34" t="n">
-        <v>6.270000000000001</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46012.36388888889</v>
+        <v>46013.09027777778</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.340045</v>
+        <v>1.327005</v>
       </c>
       <c r="D35" t="n">
-        <v>1.339945</v>
+        <v>1.327025</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1496,12 +1496,12 @@
         <v>0.87</v>
       </c>
       <c r="H35" t="n">
-        <v>7.140000000000001</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46012.36527777778</v>
+        <v>46013.09513888889</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.340145</v>
+        <v>1.326635</v>
       </c>
       <c r="D36" t="n">
-        <v>1.340155</v>
+        <v>1.327295</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1526,53 +1526,53 @@
         <v>0.87</v>
       </c>
       <c r="H36" t="n">
-        <v>8.010000000000002</v>
+        <v>22.97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46012.37152777778</v>
+        <v>46013.09861111111</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.339005</v>
+        <v>1.326705</v>
       </c>
       <c r="D37" t="n">
-        <v>1.338805</v>
+        <v>1.326575</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H37" t="n">
-        <v>8.880000000000001</v>
+        <v>21.97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46012.37361111111</v>
+        <v>46013.1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.338715</v>
+        <v>1.326795</v>
       </c>
       <c r="D38" t="n">
-        <v>1.339265</v>
+        <v>1.326495</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1586,23 +1586,23 @@
         <v>-1</v>
       </c>
       <c r="H38" t="n">
-        <v>7.880000000000001</v>
+        <v>20.97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46012.38263888889</v>
+        <v>46013.10069444445</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.339835</v>
+        <v>1.326485</v>
       </c>
       <c r="D39" t="n">
-        <v>1.340065</v>
+        <v>1.326085</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1616,12 +1616,12 @@
         <v>0.87</v>
       </c>
       <c r="H39" t="n">
-        <v>8.75</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46012.38958333333</v>
+        <v>46013.10208333333</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1629,10 +1629,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.339055</v>
+        <v>1.326285</v>
       </c>
       <c r="D40" t="n">
-        <v>1.339315</v>
+        <v>1.326515</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1646,42 +1646,42 @@
         <v>0.87</v>
       </c>
       <c r="H40" t="n">
-        <v>9.619999999999999</v>
+        <v>22.71</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46012.39375</v>
+        <v>46013.10416666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.339555</v>
+        <v>1.326365</v>
       </c>
       <c r="D41" t="n">
-        <v>1.339435</v>
+        <v>1.326195</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H41" t="n">
-        <v>10.49</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46012.39652777778</v>
+        <v>46013.10902777778</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.339325</v>
+        <v>1.326165</v>
       </c>
       <c r="D42" t="n">
-        <v>1.339415</v>
+        <v>1.326265</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1706,12 +1706,12 @@
         <v>0.87</v>
       </c>
       <c r="H42" t="n">
-        <v>11.36</v>
+        <v>22.58000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46012.40069444444</v>
+        <v>46013.11319444444</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1719,10 +1719,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.339295</v>
+        <v>1.326855</v>
       </c>
       <c r="D43" t="n">
-        <v>1.339245</v>
+        <v>1.326785</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1736,12 +1736,12 @@
         <v>0.87</v>
       </c>
       <c r="H43" t="n">
-        <v>12.23</v>
+        <v>23.45000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46012.40486111111</v>
+        <v>46013.11666666667</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1749,40 +1749,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.339415</v>
+        <v>1.327565</v>
       </c>
       <c r="D44" t="n">
-        <v>1.338895</v>
+        <v>1.327585</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H44" t="n">
-        <v>11.23</v>
+        <v>24.32000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46012.40694444445</v>
+        <v>46013.12291666667</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.338835</v>
+        <v>1.326975</v>
       </c>
       <c r="D45" t="n">
-        <v>1.338635</v>
+        <v>1.327065</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1796,12 +1796,12 @@
         <v>0.87</v>
       </c>
       <c r="H45" t="n">
-        <v>12.1</v>
+        <v>25.19000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46012.40972222222</v>
+        <v>46013.13125</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1809,29 +1809,29 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.338395</v>
+        <v>1.324495</v>
       </c>
       <c r="D46" t="n">
-        <v>1.338185</v>
+        <v>1.324795</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H46" t="n">
-        <v>12.97</v>
+        <v>24.19000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46012.41180555556</v>
+        <v>46013.13472222222</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.337995</v>
+        <v>1.323985</v>
       </c>
       <c r="D47" t="n">
-        <v>1.338235</v>
+        <v>1.324085</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1856,23 +1856,23 @@
         <v>-1</v>
       </c>
       <c r="H47" t="n">
-        <v>11.97</v>
+        <v>23.19000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46012.41736111111</v>
+        <v>46013.13611111111</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.338305</v>
+        <v>1.322975</v>
       </c>
       <c r="D48" t="n">
-        <v>1.338565</v>
+        <v>1.322775</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1886,12 +1886,12 @@
         <v>0.87</v>
       </c>
       <c r="H48" t="n">
-        <v>12.83999999999999</v>
+        <v>24.06000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46012.42083333333</v>
+        <v>46013.14166666667</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.337925</v>
+        <v>1.320965</v>
       </c>
       <c r="D49" t="n">
-        <v>1.337985</v>
+        <v>1.321135</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1916,12 +1916,12 @@
         <v>-1</v>
       </c>
       <c r="H49" t="n">
-        <v>11.83999999999999</v>
+        <v>23.06000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46012.42291666667</v>
+        <v>46013.14305555556</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.338265</v>
+        <v>1.320695</v>
       </c>
       <c r="D50" t="n">
-        <v>1.337715</v>
+        <v>1.320145</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1946,12 +1946,12 @@
         <v>0.87</v>
       </c>
       <c r="H50" t="n">
-        <v>12.70999999999999</v>
+        <v>23.93000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46012.42916666667</v>
+        <v>46013.14722222222</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.335985</v>
+        <v>1.319265</v>
       </c>
       <c r="D51" t="n">
-        <v>1.335425</v>
+        <v>1.318135</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1976,23 +1976,23 @@
         <v>0.87</v>
       </c>
       <c r="H51" t="n">
-        <v>13.57999999999999</v>
+        <v>24.80000000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46012.43055555555</v>
+        <v>46013.14930555555</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.336135</v>
+        <v>1.318055</v>
       </c>
       <c r="D52" t="n">
-        <v>1.336445</v>
+        <v>1.318025</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2006,23 +2006,23 @@
         <v>0.87</v>
       </c>
       <c r="H52" t="n">
-        <v>14.44999999999999</v>
+        <v>25.67000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46012.43333333333</v>
+        <v>46013.15</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.336245</v>
+        <v>1.318075</v>
       </c>
       <c r="D53" t="n">
-        <v>1.335685</v>
+        <v>1.318125</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2036,23 +2036,23 @@
         <v>0.87</v>
       </c>
       <c r="H53" t="n">
-        <v>15.31999999999999</v>
+        <v>26.54000000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>46012.43541666667</v>
+        <v>46013.15902777778</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.335935</v>
+        <v>1.319525</v>
       </c>
       <c r="D54" t="n">
-        <v>1.336625</v>
+        <v>1.319095</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2066,12 +2066,12 @@
         <v>0.87</v>
       </c>
       <c r="H54" t="n">
-        <v>16.18999999999999</v>
+        <v>27.41000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>46012.4375</v>
+        <v>46013.15972222222</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.335165</v>
+        <v>1.319095</v>
       </c>
       <c r="D55" t="n">
-        <v>1.334845</v>
+        <v>1.319015</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2096,23 +2096,23 @@
         <v>0.87</v>
       </c>
       <c r="H55" t="n">
-        <v>17.05999999999999</v>
+        <v>28.28000000000002</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>46012.43958333333</v>
+        <v>46013.16388888889</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.334845</v>
+        <v>1.317635</v>
       </c>
       <c r="D56" t="n">
-        <v>1.335065</v>
+        <v>1.317395</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2126,12 +2126,12 @@
         <v>-1</v>
       </c>
       <c r="H56" t="n">
-        <v>16.05999999999999</v>
+        <v>27.28000000000002</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>46012.44236111111</v>
+        <v>46013.17013888889</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2139,130 +2139,130 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.335395</v>
+        <v>1.317545</v>
       </c>
       <c r="D57" t="n">
-        <v>1.335755</v>
+        <v>1.316695</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H57" t="n">
-        <v>15.05999999999999</v>
+        <v>28.15000000000002</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>46012.44305555556</v>
+        <v>46013.17222222222</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.335635</v>
+        <v>1.316695</v>
       </c>
       <c r="D58" t="n">
-        <v>1.335535</v>
+        <v>1.316595</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H58" t="n">
-        <v>14.05999999999999</v>
+        <v>29.02000000000002</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>46012.44583333333</v>
+        <v>46013.18055555555</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.335315</v>
+        <v>1.317735</v>
       </c>
       <c r="D59" t="n">
-        <v>1.335465</v>
+        <v>1.318265</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H59" t="n">
-        <v>14.92999999999999</v>
+        <v>28.02000000000002</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>46012.44722222222</v>
+        <v>46013.18402777778</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.335235</v>
+        <v>1.317475</v>
       </c>
       <c r="D60" t="n">
-        <v>1.335155</v>
+        <v>1.317285</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H60" t="n">
-        <v>15.79999999999999</v>
+        <v>27.02000000000002</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>46012.44861111111</v>
+        <v>46013.18472222222</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.335185</v>
+        <v>1.317255</v>
       </c>
       <c r="D61" t="n">
-        <v>1.335805</v>
+        <v>1.317195</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
         <v>0.87</v>
       </c>
       <c r="H61" t="n">
-        <v>16.66999999999999</v>
+        <v>27.89000000000002</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>46012.45347222222</v>
+        <v>46013.18611111111</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2289,29 +2289,29 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.336565</v>
+        <v>1.317595</v>
       </c>
       <c r="D62" t="n">
-        <v>1.336635</v>
+        <v>1.317345</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H62" t="n">
-        <v>17.53999999999999</v>
+        <v>26.89000000000002</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>46012.45486111111</v>
+        <v>46013.18680555555</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.336015</v>
+        <v>1.317335</v>
       </c>
       <c r="D63" t="n">
-        <v>1.335945</v>
+        <v>1.317165</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2336,12 +2336,12 @@
         <v>0.87</v>
       </c>
       <c r="H63" t="n">
-        <v>18.40999999999999</v>
+        <v>27.76000000000002</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>46012.45763888889</v>
+        <v>46013.19375</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.336075</v>
+        <v>1.316545</v>
       </c>
       <c r="D64" t="n">
-        <v>1.336205</v>
+        <v>1.316615</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2366,12 +2366,12 @@
         <v>0.87</v>
       </c>
       <c r="H64" t="n">
-        <v>19.27999999999999</v>
+        <v>28.63000000000002</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>46012.46041666667</v>
+        <v>46013.19583333333</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.336695</v>
+        <v>1.316625</v>
       </c>
       <c r="D65" t="n">
-        <v>1.336475</v>
+        <v>1.316255</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2396,23 +2396,23 @@
         <v>-1</v>
       </c>
       <c r="H65" t="n">
-        <v>18.27999999999999</v>
+        <v>27.63000000000002</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>46012.46319444444</v>
+        <v>46013.19722222222</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.336205</v>
+        <v>1.316875</v>
       </c>
       <c r="D66" t="n">
-        <v>1.335975</v>
+        <v>1.317095</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2426,53 +2426,53 @@
         <v>0.87</v>
       </c>
       <c r="H66" t="n">
-        <v>19.15</v>
+        <v>28.50000000000002</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>46012.46666666667</v>
+        <v>46013.19930555556</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.336145</v>
+        <v>1.317245</v>
       </c>
       <c r="D67" t="n">
-        <v>1.336135</v>
+        <v>1.317225</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H67" t="n">
-        <v>20.02</v>
+        <v>27.50000000000002</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>46012.46875</v>
+        <v>46013.20555555556</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.336335</v>
+        <v>1.314935</v>
       </c>
       <c r="D68" t="n">
-        <v>1.336705</v>
+        <v>1.314515</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2486,12 +2486,12 @@
         <v>0.87</v>
       </c>
       <c r="H68" t="n">
-        <v>20.89</v>
+        <v>28.37000000000002</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>46012.47013888889</v>
+        <v>46013.20763888889</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2499,29 +2499,29 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.336215</v>
+        <v>1.314695</v>
       </c>
       <c r="D69" t="n">
-        <v>1.336205</v>
+        <v>1.315355</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H69" t="n">
-        <v>21.76</v>
+        <v>27.37000000000002</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>46012.48125</v>
+        <v>46013.21111111111</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2529,10 +2529,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.333075</v>
+        <v>1.315225</v>
       </c>
       <c r="D70" t="n">
-        <v>1.333145</v>
+        <v>1.315265</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2546,23 +2546,23 @@
         <v>0.87</v>
       </c>
       <c r="H70" t="n">
-        <v>22.63</v>
+        <v>28.24000000000002</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>46012.48333333333</v>
+        <v>46013.21388888889</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.332635</v>
+        <v>1.315535</v>
       </c>
       <c r="D71" t="n">
-        <v>1.332965</v>
+        <v>1.315425</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2576,12 +2576,12 @@
         <v>0.87</v>
       </c>
       <c r="H71" t="n">
-        <v>23.5</v>
+        <v>29.11000000000002</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>46012.48819444444</v>
+        <v>46013.22013888889</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2589,10 +2589,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.334735</v>
+        <v>1.313405</v>
       </c>
       <c r="D72" t="n">
-        <v>1.334845</v>
+        <v>1.313605</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2606,12 +2606,12 @@
         <v>0.87</v>
       </c>
       <c r="H72" t="n">
-        <v>24.37</v>
+        <v>29.98000000000003</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>46012.49027777778</v>
+        <v>46013.22361111111</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.334805</v>
+        <v>1.313355</v>
       </c>
       <c r="D73" t="n">
-        <v>1.334765</v>
+        <v>1.313275</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2636,42 +2636,42 @@
         <v>0.87</v>
       </c>
       <c r="H73" t="n">
-        <v>25.24</v>
+        <v>30.85000000000003</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>46012.49375</v>
+        <v>46013.225</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.333965</v>
+        <v>1.313305</v>
       </c>
       <c r="D74" t="n">
-        <v>1.334205</v>
+        <v>1.313895</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H74" t="n">
-        <v>24.24</v>
+        <v>31.72000000000003</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>46012.49444444444</v>
+        <v>46013.22777777778</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2679,29 +2679,29 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.334155</v>
+        <v>1.314955</v>
       </c>
       <c r="D75" t="n">
-        <v>1.334175</v>
+        <v>1.314645</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H75" t="n">
-        <v>25.11</v>
+        <v>30.72000000000003</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>46012.49722222222</v>
+        <v>46013.23194444444</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2709,29 +2709,29 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.333145</v>
+        <v>1.314575</v>
       </c>
       <c r="D76" t="n">
-        <v>1.332815</v>
+        <v>1.314665</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H76" t="n">
-        <v>25.98</v>
+        <v>29.72000000000003</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>46012.5</v>
+        <v>46013.23263888889</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.332205</v>
+        <v>1.314655</v>
       </c>
       <c r="D77" t="n">
-        <v>1.332315</v>
+        <v>1.314815</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2756,23 +2756,23 @@
         <v>0.87</v>
       </c>
       <c r="H77" t="n">
-        <v>26.85</v>
+        <v>30.59000000000003</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>46012.50486111111</v>
+        <v>46013.23819444444</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.333225</v>
+        <v>1.315565</v>
       </c>
       <c r="D78" t="n">
-        <v>1.333515</v>
+        <v>1.315365</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2786,12 +2786,12 @@
         <v>0.87</v>
       </c>
       <c r="H78" t="n">
-        <v>27.72000000000001</v>
+        <v>31.46000000000003</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>46012.50763888889</v>
+        <v>46013.24375</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2799,10 +2799,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.333055</v>
+        <v>1.314975</v>
       </c>
       <c r="D79" t="n">
-        <v>1.333395</v>
+        <v>1.315055</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2816,23 +2816,23 @@
         <v>0.87</v>
       </c>
       <c r="H79" t="n">
-        <v>28.59000000000001</v>
+        <v>32.33000000000003</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>46012.50972222222</v>
+        <v>46013.24722222222</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.332855</v>
+        <v>1.316515</v>
       </c>
       <c r="D80" t="n">
-        <v>1.332725</v>
+        <v>1.316565</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2846,12 +2846,12 @@
         <v>0.87</v>
       </c>
       <c r="H80" t="n">
-        <v>29.46000000000001</v>
+        <v>33.20000000000002</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>46012.51388888889</v>
+        <v>46013.25416666667</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2859,10 +2859,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.332175</v>
+        <v>1.315825</v>
       </c>
       <c r="D81" t="n">
-        <v>1.331835</v>
+        <v>1.315075</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2876,23 +2876,23 @@
         <v>0.87</v>
       </c>
       <c r="H81" t="n">
-        <v>30.33000000000001</v>
+        <v>34.07000000000002</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>46012.51597222222</v>
+        <v>46013.25625</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.331745</v>
+        <v>1.315445</v>
       </c>
       <c r="D82" t="n">
-        <v>1.332035</v>
+        <v>1.315055</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2906,12 +2906,12 @@
         <v>0.87</v>
       </c>
       <c r="H82" t="n">
-        <v>31.20000000000001</v>
+        <v>34.94000000000002</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>46012.51944444444</v>
+        <v>46013.25972222222</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2919,40 +2919,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.332925</v>
+        <v>1.315645</v>
       </c>
       <c r="D83" t="n">
-        <v>1.332885</v>
+        <v>1.316345</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H83" t="n">
-        <v>30.20000000000001</v>
+        <v>35.81000000000002</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>46012.52152777778</v>
+        <v>46013.26180555556</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1.332645</v>
+        <v>1.316445</v>
       </c>
       <c r="D84" t="n">
-        <v>1.332335</v>
+        <v>1.316995</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2966,53 +2966,53 @@
         <v>0.87</v>
       </c>
       <c r="H84" t="n">
-        <v>31.07000000000001</v>
+        <v>36.68000000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>46012.52361111111</v>
+        <v>46013.26597222222</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.332345</v>
+        <v>1.317425</v>
       </c>
       <c r="D85" t="n">
-        <v>1.332075</v>
+        <v>1.316955</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H85" t="n">
-        <v>30.07000000000001</v>
+        <v>37.55000000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>46012.52430555555</v>
+        <v>46013.26944444444</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.332105</v>
+        <v>1.316695</v>
       </c>
       <c r="D86" t="n">
-        <v>1.332055</v>
+        <v>1.316955</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3026,23 +3026,23 @@
         <v>0.87</v>
       </c>
       <c r="H86" t="n">
-        <v>30.94000000000001</v>
+        <v>38.42000000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>46012.52569444444</v>
+        <v>46013.27361111111</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.332445</v>
+        <v>1.316535</v>
       </c>
       <c r="D87" t="n">
-        <v>1.332645</v>
+        <v>1.316165</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3056,12 +3056,12 @@
         <v>0.87</v>
       </c>
       <c r="H87" t="n">
-        <v>31.81000000000001</v>
+        <v>39.29000000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>46012.52916666667</v>
+        <v>46013.27569444444</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3069,10 +3069,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.333665</v>
+        <v>1.315725</v>
       </c>
       <c r="D88" t="n">
-        <v>1.333985</v>
+        <v>1.315795</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3086,12 +3086,12 @@
         <v>-1</v>
       </c>
       <c r="H88" t="n">
-        <v>30.81000000000001</v>
+        <v>38.29000000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>46012.52986111111</v>
+        <v>46013.27777777778</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3099,10 +3099,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.334065</v>
+        <v>1.316335</v>
       </c>
       <c r="D89" t="n">
-        <v>1.334575</v>
+        <v>1.316645</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3116,12 +3116,12 @@
         <v>0.87</v>
       </c>
       <c r="H89" t="n">
-        <v>31.68000000000001</v>
+        <v>39.16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>46012.53194444445</v>
+        <v>46013.27916666667</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.333905</v>
+        <v>1.316435</v>
       </c>
       <c r="D90" t="n">
-        <v>1.333195</v>
+        <v>1.316225</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3146,12 +3146,12 @@
         <v>0.87</v>
       </c>
       <c r="H90" t="n">
-        <v>32.55000000000001</v>
+        <v>40.03</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>46012.53402777778</v>
+        <v>46013.28125</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.333005</v>
+        <v>1.316345</v>
       </c>
       <c r="D91" t="n">
-        <v>1.332815</v>
+        <v>1.316205</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3176,12 +3176,12 @@
         <v>0.87</v>
       </c>
       <c r="H91" t="n">
-        <v>33.42000000000001</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>46012.53611111111</v>
+        <v>46013.28263888889</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.332895</v>
+        <v>1.316395</v>
       </c>
       <c r="D92" t="n">
-        <v>1.333535</v>
+        <v>1.316435</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3206,12 +3206,12 @@
         <v>0.87</v>
       </c>
       <c r="H92" t="n">
-        <v>34.29000000000001</v>
+        <v>41.77</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>46012.53958333333</v>
+        <v>46013.28680555556</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.334165</v>
+        <v>1.315655</v>
       </c>
       <c r="D93" t="n">
-        <v>1.334015</v>
+        <v>1.315185</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
         <v>0.87</v>
       </c>
       <c r="H93" t="n">
-        <v>35.16</v>
+        <v>42.63999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>46012.54305555556</v>
+        <v>46013.28819444445</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3249,29 +3249,29 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.333035</v>
+        <v>1.315415</v>
       </c>
       <c r="D94" t="n">
-        <v>1.332645</v>
+        <v>1.315695</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H94" t="n">
-        <v>34.16</v>
+        <v>43.50999999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>46012.54375</v>
+        <v>46013.28958333333</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3279,10 +3279,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.332645</v>
+        <v>1.315375</v>
       </c>
       <c r="D95" t="n">
-        <v>1.332355</v>
+        <v>1.315195</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3296,12 +3296,12 @@
         <v>0.87</v>
       </c>
       <c r="H95" t="n">
-        <v>35.03</v>
+        <v>44.37999999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>46012.55138888889</v>
+        <v>46013.29166666666</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3309,70 +3309,70 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.330515</v>
+        <v>1.315305</v>
       </c>
       <c r="D96" t="n">
-        <v>1.330095</v>
+        <v>1.315855</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H96" t="n">
-        <v>35.9</v>
+        <v>43.37999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>46012.55347222222</v>
+        <v>46013.29652777778</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.329745</v>
+        <v>1.316475</v>
       </c>
       <c r="D97" t="n">
-        <v>1.330005</v>
+        <v>1.316545</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H97" t="n">
-        <v>34.9</v>
+        <v>44.24999999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>46012.55763888889</v>
+        <v>46013.29791666667</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.329435</v>
+        <v>1.316275</v>
       </c>
       <c r="D98" t="n">
-        <v>1.329825</v>
+        <v>1.316245</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3386,12 +3386,12 @@
         <v>0.87</v>
       </c>
       <c r="H98" t="n">
-        <v>35.77</v>
+        <v>45.11999999999998</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>46012.55972222222</v>
+        <v>46013.30486111111</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3399,40 +3399,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.329905</v>
+        <v>1.315495</v>
       </c>
       <c r="D99" t="n">
-        <v>1.329305</v>
+        <v>1.315525</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H99" t="n">
-        <v>34.77</v>
+        <v>45.98999999999998</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>46012.56041666667</v>
+        <v>46013.30833333333</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1.329295</v>
+        <v>1.315905</v>
       </c>
       <c r="D100" t="n">
-        <v>1.328755</v>
+        <v>1.316205</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3446,12 +3446,12 @@
         <v>0.87</v>
       </c>
       <c r="H100" t="n">
-        <v>35.63999999999999</v>
+        <v>46.85999999999998</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>46012.56319444445</v>
+        <v>46013.31041666667</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3459,40 +3459,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1.327885</v>
+        <v>1.315955</v>
       </c>
       <c r="D101" t="n">
-        <v>1.327755</v>
+        <v>1.316055</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H101" t="n">
-        <v>36.50999999999999</v>
+        <v>45.85999999999998</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>46012.56458333333</v>
+        <v>46013.31180555555</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.328005</v>
+        <v>1.315785</v>
       </c>
       <c r="D102" t="n">
-        <v>1.328165</v>
+        <v>1.315195</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3506,12 +3506,12 @@
         <v>0.87</v>
       </c>
       <c r="H102" t="n">
-        <v>37.37999999999999</v>
+        <v>46.72999999999998</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>46012.56666666667</v>
+        <v>46013.31527777778</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3519,10 +3519,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.327705</v>
+        <v>1.314895</v>
       </c>
       <c r="D103" t="n">
-        <v>1.327425</v>
+        <v>1.314755</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3536,12 +3536,12 @@
         <v>0.87</v>
       </c>
       <c r="H103" t="n">
-        <v>38.24999999999999</v>
+        <v>47.59999999999997</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>46012.56944444445</v>
+        <v>46013.32222222222</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3549,10 +3549,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1.327315</v>
+        <v>1.315615</v>
       </c>
       <c r="D104" t="n">
-        <v>1.327235</v>
+        <v>1.315505</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3566,12 +3566,12 @@
         <v>0.87</v>
       </c>
       <c r="H104" t="n">
-        <v>39.11999999999998</v>
+        <v>48.46999999999997</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>46012.57291666666</v>
+        <v>46013.32430555556</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3579,40 +3579,40 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1.327595</v>
+        <v>1.315265</v>
       </c>
       <c r="D105" t="n">
-        <v>1.327295</v>
+        <v>1.315305</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H105" t="n">
-        <v>39.98999999999998</v>
+        <v>47.46999999999997</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>46012.57430555556</v>
+        <v>46013.32708333333</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1.327745</v>
+        <v>1.315735</v>
       </c>
       <c r="D106" t="n">
-        <v>1.327795</v>
+        <v>1.315515</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3626,12 +3626,12 @@
         <v>0.87</v>
       </c>
       <c r="H106" t="n">
-        <v>40.85999999999998</v>
+        <v>48.33999999999997</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>46012.57708333333</v>
+        <v>46013.32986111111</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3639,40 +3639,40 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.328805</v>
+        <v>1.315035</v>
       </c>
       <c r="D107" t="n">
-        <v>1.328375</v>
+        <v>1.315285</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H107" t="n">
-        <v>39.85999999999998</v>
+        <v>49.20999999999997</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>46012.57986111111</v>
+        <v>46013.33263888889</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1.328155</v>
+        <v>1.315685</v>
       </c>
       <c r="D108" t="n">
-        <v>1.327905</v>
+        <v>1.315735</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3686,42 +3686,42 @@
         <v>0.87</v>
       </c>
       <c r="H108" t="n">
-        <v>40.72999999999998</v>
+        <v>50.07999999999996</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>46012.58125</v>
+        <v>46013.33402777778</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1.328285</v>
+        <v>1.315115</v>
       </c>
       <c r="D109" t="n">
-        <v>1.328295</v>
+        <v>1.315685</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H109" t="n">
-        <v>41.59999999999997</v>
+        <v>49.07999999999996</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>46012.58680555555</v>
+        <v>46013.33472222222</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1.327915</v>
+        <v>1.315765</v>
       </c>
       <c r="D110" t="n">
-        <v>1.328215</v>
+        <v>1.315785</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3746,23 +3746,23 @@
         <v>0.87</v>
       </c>
       <c r="H110" t="n">
-        <v>42.46999999999997</v>
+        <v>49.94999999999996</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>46012.58888888889</v>
+        <v>46013.33611111111</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1.328305</v>
+        <v>1.315405</v>
       </c>
       <c r="D111" t="n">
-        <v>1.328595</v>
+        <v>1.315305</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3776,12 +3776,12 @@
         <v>0.87</v>
       </c>
       <c r="H111" t="n">
-        <v>43.33999999999997</v>
+        <v>50.81999999999996</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>46012.59097222222</v>
+        <v>46013.33819444444</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3789,10 +3789,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1.328655</v>
+        <v>1.315675</v>
       </c>
       <c r="D112" t="n">
-        <v>1.327675</v>
+        <v>1.315615</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3806,42 +3806,42 @@
         <v>-1</v>
       </c>
       <c r="H112" t="n">
-        <v>42.33999999999997</v>
+        <v>49.81999999999996</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>46012.59444444445</v>
+        <v>46013.33958333333</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1.327905</v>
+        <v>1.316535</v>
       </c>
       <c r="D113" t="n">
-        <v>1.327715</v>
+        <v>1.316535</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H113" t="n">
-        <v>43.20999999999997</v>
+        <v>48.81999999999996</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>46012.60347222222</v>
+        <v>46013.34166666667</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1.327915</v>
+        <v>1.316725</v>
       </c>
       <c r="D114" t="n">
-        <v>1.327595</v>
+        <v>1.316595</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3866,23 +3866,23 @@
         <v>0.87</v>
       </c>
       <c r="H114" t="n">
-        <v>44.07999999999996</v>
+        <v>49.68999999999996</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>46012.60763888889</v>
+        <v>46013.34305555555</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1.327045</v>
+        <v>1.316925</v>
       </c>
       <c r="D115" t="n">
-        <v>1.326755</v>
+        <v>1.316975</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3896,12 +3896,12 @@
         <v>0.87</v>
       </c>
       <c r="H115" t="n">
-        <v>44.94999999999996</v>
+        <v>50.55999999999995</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>46012.61111111111</v>
+        <v>46013.34722222222</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3909,29 +3909,29 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1.326545</v>
+        <v>1.317365</v>
       </c>
       <c r="D116" t="n">
-        <v>1.326685</v>
+        <v>1.317305</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H116" t="n">
-        <v>43.94999999999996</v>
+        <v>51.42999999999995</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>46012.61180555556</v>
+        <v>46013.35486111111</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3939,70 +3939,70 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1.326645</v>
+        <v>1.319055</v>
       </c>
       <c r="D117" t="n">
-        <v>1.326765</v>
+        <v>1.318595</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H117" t="n">
-        <v>44.81999999999996</v>
+        <v>50.42999999999995</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>46012.61458333334</v>
+        <v>46013.35763888889</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1.326095</v>
+        <v>1.318965</v>
       </c>
       <c r="D118" t="n">
-        <v>1.325765</v>
+        <v>1.318425</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H118" t="n">
-        <v>45.68999999999996</v>
+        <v>49.42999999999995</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>46012.61875</v>
+        <v>46013.35833333333</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1.325585</v>
+        <v>1.318415</v>
       </c>
       <c r="D119" t="n">
-        <v>1.325335</v>
+        <v>1.318465</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4016,12 +4016,12 @@
         <v>-1</v>
       </c>
       <c r="H119" t="n">
-        <v>44.68999999999996</v>
+        <v>48.42999999999995</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>46012.62013888889</v>
+        <v>46013.36458333334</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4029,29 +4029,29 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1.325395</v>
+        <v>1.317615</v>
       </c>
       <c r="D120" t="n">
-        <v>1.325245</v>
+        <v>1.317935</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H120" t="n">
-        <v>43.68999999999996</v>
+        <v>49.29999999999995</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>46012.62083333333</v>
+        <v>46013.36666666667</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4059,10 +4059,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1.325215</v>
+        <v>1.318045</v>
       </c>
       <c r="D121" t="n">
-        <v>1.324845</v>
+        <v>1.317855</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4076,12 +4076,12 @@
         <v>0.87</v>
       </c>
       <c r="H121" t="n">
-        <v>44.55999999999995</v>
+        <v>50.16999999999994</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>46012.62361111111</v>
+        <v>46013.36944444444</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4089,70 +4089,70 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1.324715</v>
+        <v>1.318055</v>
       </c>
       <c r="D122" t="n">
-        <v>1.324795</v>
+        <v>1.317895</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H122" t="n">
-        <v>45.42999999999995</v>
+        <v>49.16999999999994</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>46012.62708333333</v>
+        <v>46013.37013888889</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.326305</v>
+        <v>1.317875</v>
       </c>
       <c r="D123" t="n">
-        <v>1.326105</v>
+        <v>1.317575</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H123" t="n">
-        <v>44.42999999999995</v>
+        <v>50.03999999999994</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>46012.63125</v>
+        <v>46013.37291666667</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1.327125</v>
+        <v>1.317515</v>
       </c>
       <c r="D124" t="n">
-        <v>1.326845</v>
+        <v>1.317785</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4166,12 +4166,12 @@
         <v>0.87</v>
       </c>
       <c r="H124" t="n">
-        <v>45.29999999999995</v>
+        <v>50.90999999999994</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>46012.63472222222</v>
+        <v>46013.375</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4179,10 +4179,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1.327505</v>
+        <v>1.317805</v>
       </c>
       <c r="D125" t="n">
-        <v>1.327945</v>
+        <v>1.317875</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
         <v>0.87</v>
       </c>
       <c r="H125" t="n">
-        <v>46.16999999999994</v>
+        <v>51.77999999999994</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>46012.64791666667</v>
+        <v>46013.37777777778</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4209,40 +4209,40 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1.327115</v>
+        <v>1.318315</v>
       </c>
       <c r="D126" t="n">
-        <v>1.326605</v>
+        <v>1.319105</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H126" t="n">
-        <v>47.03999999999994</v>
+        <v>50.77999999999994</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>46012.65416666667</v>
+        <v>46013.37847222222</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1.326495</v>
+        <v>1.319115</v>
       </c>
       <c r="D127" t="n">
-        <v>1.326485</v>
+        <v>1.319335</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4256,23 +4256,23 @@
         <v>0.87</v>
       </c>
       <c r="H127" t="n">
-        <v>47.90999999999994</v>
+        <v>51.64999999999993</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>46012.65555555555</v>
+        <v>46013.38541666666</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1.326605</v>
+        <v>1.318375</v>
       </c>
       <c r="D128" t="n">
-        <v>1.327055</v>
+        <v>1.317985</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4286,42 +4286,42 @@
         <v>0.87</v>
       </c>
       <c r="H128" t="n">
-        <v>48.77999999999994</v>
+        <v>52.51999999999993</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>46012.65694444445</v>
+        <v>46013.3875</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1.326465</v>
+        <v>1.318005</v>
       </c>
       <c r="D129" t="n">
-        <v>1.326235</v>
+        <v>1.317685</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H129" t="n">
-        <v>49.64999999999993</v>
+        <v>51.51999999999993</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>46012.65972222222</v>
+        <v>46013.38819444444</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4329,10 +4329,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1.326005</v>
+        <v>1.317685</v>
       </c>
       <c r="D130" t="n">
-        <v>1.325735</v>
+        <v>1.317135</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4346,34 +4346,34 @@
         <v>0.87</v>
       </c>
       <c r="H130" t="n">
-        <v>50.51999999999993</v>
+        <v>52.38999999999993</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>46012.66111111111</v>
+        <v>46013.39027777778</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1.326245</v>
+        <v>1.317045</v>
       </c>
       <c r="D131" t="n">
-        <v>1.326755</v>
+        <v>1.317285</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H131" t="n">
         <v>51.38999999999993</v>
@@ -4381,18 +4381,18 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>46012.66388888889</v>
+        <v>46013.39305555556</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1.326585</v>
+        <v>1.317335</v>
       </c>
       <c r="D132" t="n">
-        <v>1.326065</v>
+        <v>1.317465</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>46012.66944444444</v>
+        <v>46013.39583333334</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4419,40 +4419,40 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1.326005</v>
+        <v>1.317525</v>
       </c>
       <c r="D133" t="n">
-        <v>1.326775</v>
+        <v>1.317125</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H133" t="n">
-        <v>51.25999999999993</v>
+        <v>53.12999999999992</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>46012.67222222222</v>
+        <v>46013.40069444444</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1.326605</v>
+        <v>1.316825</v>
       </c>
       <c r="D134" t="n">
-        <v>1.326455</v>
+        <v>1.317145</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4466,12 +4466,12 @@
         <v>0.87</v>
       </c>
       <c r="H134" t="n">
-        <v>52.12999999999992</v>
+        <v>53.99999999999992</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>46012.67361111111</v>
+        <v>46013.40277777778</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4479,21 +4479,21 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1.326695</v>
+        <v>1.317405</v>
       </c>
       <c r="D135" t="n">
-        <v>1.326925</v>
+        <v>1.317345</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H135" t="n">
         <v>52.99999999999992</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>46012.67569444444</v>
+        <v>46013.40555555555</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4509,10 +4509,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1.326965</v>
+        <v>1.317215</v>
       </c>
       <c r="D136" t="n">
-        <v>1.326775</v>
+        <v>1.317095</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>46012.67916666667</v>
+        <v>46013.40763888889</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1.326605</v>
+        <v>1.317075</v>
       </c>
       <c r="D137" t="n">
-        <v>1.326645</v>
+        <v>1.317245</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>46012.68055555555</v>
+        <v>46013.41111111111</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1.326505</v>
+        <v>1.317605</v>
       </c>
       <c r="D138" t="n">
-        <v>1.326265</v>
+        <v>1.316915</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4591,18 +4591,18 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>46012.68333333333</v>
+        <v>46013.41319444445</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1.325455</v>
+        <v>1.317595</v>
       </c>
       <c r="D139" t="n">
-        <v>1.325545</v>
+        <v>1.317325</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4621,18 +4621,18 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>46012.68472222222</v>
+        <v>46013.41388888889</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.326135</v>
+        <v>1.317305</v>
       </c>
       <c r="D140" t="n">
-        <v>1.326145</v>
+        <v>1.317095</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4651,18 +4651,18 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>46012.6875</v>
+        <v>46013.41527777778</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1.326265</v>
+        <v>1.317535</v>
       </c>
       <c r="D141" t="n">
-        <v>1.325685</v>
+        <v>1.317955</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>46012.69097222222</v>
+        <v>46013.41805555556</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4689,10 +4689,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1.325425</v>
+        <v>1.318155</v>
       </c>
       <c r="D142" t="n">
-        <v>1.324985</v>
+        <v>1.318085</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>46012.69583333333</v>
+        <v>46013.41944444444</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4719,10 +4719,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1.323135</v>
+        <v>1.318345</v>
       </c>
       <c r="D143" t="n">
-        <v>1.323325</v>
+        <v>1.318415</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>46012.69791666666</v>
+        <v>46013.42222222222</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4749,29 +4749,29 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1.323745</v>
+        <v>1.318405</v>
       </c>
       <c r="D144" t="n">
-        <v>1.323035</v>
+        <v>1.318665</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H144" t="n">
-        <v>57.0899999999999</v>
+        <v>58.9599999999999</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>46012.69930555556</v>
+        <v>46013.42430555556</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4779,10 +4779,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1.323425</v>
+        <v>1.318685</v>
       </c>
       <c r="D145" t="n">
-        <v>1.323585</v>
+        <v>1.319105</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4796,12 +4796,12 @@
         <v>0.87</v>
       </c>
       <c r="H145" t="n">
-        <v>57.9599999999999</v>
+        <v>59.8299999999999</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>46012.70833333334</v>
+        <v>46013.425</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4809,10 +4809,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1.324055</v>
+        <v>1.319095</v>
       </c>
       <c r="D146" t="n">
-        <v>1.324275</v>
+        <v>1.319475</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4826,23 +4826,23 @@
         <v>0.87</v>
       </c>
       <c r="H146" t="n">
-        <v>58.8299999999999</v>
+        <v>60.6999999999999</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>46012.71041666667</v>
+        <v>46013.42847222222</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1.324505</v>
+        <v>1.319925</v>
       </c>
       <c r="D147" t="n">
-        <v>1.324775</v>
+        <v>1.319465</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4856,23 +4856,23 @@
         <v>0.87</v>
       </c>
       <c r="H147" t="n">
-        <v>59.6999999999999</v>
+        <v>61.56999999999989</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>46012.71319444444</v>
+        <v>46013.43125</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.324715</v>
+        <v>1.319345</v>
       </c>
       <c r="D148" t="n">
-        <v>1.324385</v>
+        <v>1.319395</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4886,23 +4886,23 @@
         <v>0.87</v>
       </c>
       <c r="H148" t="n">
-        <v>60.56999999999989</v>
+        <v>62.43999999999989</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>46012.71527777778</v>
+        <v>46013.43611111111</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1.324665</v>
+        <v>1.320925</v>
       </c>
       <c r="D149" t="n">
-        <v>1.324675</v>
+        <v>1.320775</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
         <v>0.87</v>
       </c>
       <c r="H149" t="n">
-        <v>61.43999999999989</v>
+        <v>63.30999999999989</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>46012.72013888889</v>
+        <v>46013.43888888889</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4929,10 +4929,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1.324455</v>
+        <v>1.319965</v>
       </c>
       <c r="D150" t="n">
-        <v>1.324625</v>
+        <v>1.319985</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4946,12 +4946,12 @@
         <v>-1</v>
       </c>
       <c r="H150" t="n">
-        <v>60.43999999999989</v>
+        <v>62.30999999999989</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>46012.72083333333</v>
+        <v>46013.44305555556</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4959,29 +4959,29 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.324625</v>
+        <v>1.319565</v>
       </c>
       <c r="D151" t="n">
-        <v>1.324335</v>
+        <v>1.319715</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H151" t="n">
-        <v>59.43999999999989</v>
+        <v>63.17999999999989</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>46012.72152777778</v>
+        <v>46013.44513888889</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1.324345</v>
+        <v>1.319815</v>
       </c>
       <c r="D152" t="n">
-        <v>1.324185</v>
+        <v>1.319505</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5006,12 +5006,12 @@
         <v>0.87</v>
       </c>
       <c r="H152" t="n">
-        <v>60.30999999999989</v>
+        <v>64.04999999999988</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>46012.72361111111</v>
+        <v>46013.44791666666</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5019,10 +5019,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1.324195</v>
+        <v>1.319945</v>
       </c>
       <c r="D153" t="n">
-        <v>1.324725</v>
+        <v>1.320025</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5036,23 +5036,23 @@
         <v>0.87</v>
       </c>
       <c r="H153" t="n">
-        <v>61.17999999999989</v>
+        <v>64.91999999999989</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>46012.72638888889</v>
+        <v>46013.44930555556</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1.325825</v>
+        <v>1.319725</v>
       </c>
       <c r="D154" t="n">
-        <v>1.325925</v>
+        <v>1.318935</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5066,42 +5066,42 @@
         <v>0.87</v>
       </c>
       <c r="H154" t="n">
-        <v>62.04999999999988</v>
+        <v>65.78999999999989</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>46012.72916666666</v>
+        <v>46013.45208333333</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.326345</v>
+        <v>1.319515</v>
       </c>
       <c r="D155" t="n">
-        <v>1.326255</v>
+        <v>1.318975</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H155" t="n">
-        <v>61.04999999999988</v>
+        <v>66.6599999999999</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>46012.73472222222</v>
+        <v>46013.45416666667</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5109,10 +5109,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.325915</v>
+        <v>1.319085</v>
       </c>
       <c r="D156" t="n">
-        <v>1.326155</v>
+        <v>1.319185</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5126,72 +5126,72 @@
         <v>0.87</v>
       </c>
       <c r="H156" t="n">
-        <v>61.91999999999988</v>
+        <v>67.5299999999999</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>46012.73611111111</v>
+        <v>46013.46041666667</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1.325735</v>
+        <v>1.320025</v>
       </c>
       <c r="D157" t="n">
-        <v>1.325985</v>
+        <v>1.320525</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H157" t="n">
-        <v>60.91999999999988</v>
+        <v>68.39999999999991</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>46012.73888888889</v>
+        <v>46013.4625</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1.325995</v>
+        <v>1.320425</v>
       </c>
       <c r="D158" t="n">
-        <v>1.326665</v>
+        <v>1.320905</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H158" t="n">
-        <v>59.91999999999988</v>
+        <v>69.26999999999991</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>46012.73958333334</v>
+        <v>46013.46597222222</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5199,10 +5199,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1.326675</v>
+        <v>1.321605</v>
       </c>
       <c r="D159" t="n">
-        <v>1.327025</v>
+        <v>1.321725</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -5216,12 +5216,12 @@
         <v>0.87</v>
       </c>
       <c r="H159" t="n">
-        <v>60.78999999999988</v>
+        <v>70.13999999999992</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>46012.74097222222</v>
+        <v>46013.46736111111</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5229,10 +5229,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1.326505</v>
+        <v>1.321665</v>
       </c>
       <c r="D160" t="n">
-        <v>1.326325</v>
+        <v>1.321605</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -5246,12 +5246,12 @@
         <v>0.87</v>
       </c>
       <c r="H160" t="n">
-        <v>61.65999999999988</v>
+        <v>71.00999999999992</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>46012.74305555555</v>
+        <v>46013.47569444445</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1.326525</v>
+        <v>1.319975</v>
       </c>
       <c r="D161" t="n">
-        <v>1.325945</v>
+        <v>1.319735</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -5276,23 +5276,23 @@
         <v>0.87</v>
       </c>
       <c r="H161" t="n">
-        <v>62.52999999999987</v>
+        <v>71.87999999999992</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>46012.74583333333</v>
+        <v>46013.47708333333</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1.325935</v>
+        <v>1.320115</v>
       </c>
       <c r="D162" t="n">
-        <v>1.325525</v>
+        <v>1.320875</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -5306,12 +5306,12 @@
         <v>0.87</v>
       </c>
       <c r="H162" t="n">
-        <v>63.39999999999987</v>
+        <v>72.74999999999993</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>46012.75</v>
+        <v>46013.47916666666</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1.324175</v>
+        <v>1.320475</v>
       </c>
       <c r="D163" t="n">
-        <v>1.323895</v>
+        <v>1.320215</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -5336,12 +5336,12 @@
         <v>0.87</v>
       </c>
       <c r="H163" t="n">
-        <v>64.26999999999987</v>
+        <v>73.61999999999993</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>46012.75347222222</v>
+        <v>46013.48194444444</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -5349,10 +5349,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.324115</v>
+        <v>1.319795</v>
       </c>
       <c r="D164" t="n">
-        <v>1.324145</v>
+        <v>1.320185</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -5366,83 +5366,83 @@
         <v>0.87</v>
       </c>
       <c r="H164" t="n">
-        <v>65.13999999999987</v>
+        <v>74.48999999999994</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>46012.75625</v>
+        <v>46013.48333333333</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1.324075</v>
+        <v>1.319895</v>
       </c>
       <c r="D165" t="n">
-        <v>1.324255</v>
+        <v>1.320305</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H165" t="n">
-        <v>66.00999999999988</v>
+        <v>73.48999999999994</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>46012.75902777778</v>
+        <v>46013.48402777778</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.323415</v>
+        <v>1.320295</v>
       </c>
       <c r="D166" t="n">
-        <v>1.324295</v>
+        <v>1.320315</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H166" t="n">
-        <v>65.00999999999988</v>
+        <v>74.35999999999994</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>46012.75972222222</v>
+        <v>46013.48541666667</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1.324285</v>
+        <v>1.319645</v>
       </c>
       <c r="D167" t="n">
-        <v>1.323705</v>
+        <v>1.320035</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -5456,12 +5456,12 @@
         <v>-1</v>
       </c>
       <c r="H167" t="n">
-        <v>64.00999999999988</v>
+        <v>73.35999999999994</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>46012.76041666666</v>
+        <v>46013.48888888889</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -5469,10 +5469,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1.323695</v>
+        <v>1.319175</v>
       </c>
       <c r="D168" t="n">
-        <v>1.323515</v>
+        <v>1.319115</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -5486,12 +5486,12 @@
         <v>0.87</v>
       </c>
       <c r="H168" t="n">
-        <v>64.87999999999988</v>
+        <v>74.22999999999995</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>46012.7625</v>
+        <v>46013.49166666667</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -5499,40 +5499,40 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1.322315</v>
+        <v>1.318375</v>
       </c>
       <c r="D169" t="n">
-        <v>1.321965</v>
+        <v>1.318395</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H169" t="n">
-        <v>65.74999999999989</v>
+        <v>73.22999999999995</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>46012.76875</v>
+        <v>46013.49513888889</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1.322675</v>
+        <v>1.317885</v>
       </c>
       <c r="D170" t="n">
-        <v>1.322495</v>
+        <v>1.318625</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -5546,12 +5546,12 @@
         <v>0.87</v>
       </c>
       <c r="H170" t="n">
-        <v>66.61999999999989</v>
+        <v>74.09999999999995</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>46012.77152777778</v>
+        <v>46013.49861111111</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -5559,40 +5559,40 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1.322025</v>
+        <v>1.319805</v>
       </c>
       <c r="D171" t="n">
-        <v>1.322005</v>
+        <v>1.319865</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H171" t="n">
-        <v>65.61999999999989</v>
+        <v>74.96999999999996</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>46012.77222222222</v>
+        <v>46013.50208333333</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1.321985</v>
+        <v>1.320705</v>
       </c>
       <c r="D172" t="n">
-        <v>1.321885</v>
+        <v>1.321235</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -5606,53 +5606,53 @@
         <v>0.87</v>
       </c>
       <c r="H172" t="n">
-        <v>66.4899999999999</v>
+        <v>75.83999999999996</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>46012.78055555555</v>
+        <v>46013.50486111111</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1.322045</v>
+        <v>1.321445</v>
       </c>
       <c r="D173" t="n">
-        <v>1.322215</v>
+        <v>1.321515</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H173" t="n">
-        <v>65.4899999999999</v>
+        <v>76.70999999999997</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>46012.78125</v>
+        <v>46013.51041666666</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1.322205</v>
+        <v>1.321535</v>
       </c>
       <c r="D174" t="n">
-        <v>1.322625</v>
+        <v>1.321085</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -5666,12 +5666,12 @@
         <v>0.87</v>
       </c>
       <c r="H174" t="n">
-        <v>66.3599999999999</v>
+        <v>77.57999999999997</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>46012.78333333333</v>
+        <v>46013.5125</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1.321895</v>
+        <v>1.321165</v>
       </c>
       <c r="D175" t="n">
-        <v>1.321835</v>
+        <v>1.320885</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -5696,23 +5696,23 @@
         <v>0.87</v>
       </c>
       <c r="H175" t="n">
-        <v>67.2299999999999</v>
+        <v>78.44999999999997</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>46012.78472222222</v>
+        <v>46013.51597222222</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1.321995</v>
+        <v>1.319945</v>
       </c>
       <c r="D176" t="n">
-        <v>1.322865</v>
+        <v>1.319745</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -5726,72 +5726,72 @@
         <v>0.87</v>
       </c>
       <c r="H176" t="n">
-        <v>68.09999999999991</v>
+        <v>79.31999999999998</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>46012.79027777778</v>
+        <v>46013.51736111111</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1.322845</v>
+        <v>1.320165</v>
       </c>
       <c r="D177" t="n">
-        <v>1.323305</v>
+        <v>1.320245</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H177" t="n">
-        <v>67.09999999999991</v>
+        <v>80.18999999999998</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>46012.79097222222</v>
+        <v>46013.51875</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1.323335</v>
+        <v>1.320075</v>
       </c>
       <c r="D178" t="n">
-        <v>1.323735</v>
+        <v>1.320165</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H178" t="n">
-        <v>67.96999999999991</v>
+        <v>79.18999999999998</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>46012.79305555556</v>
+        <v>46013.52222222222</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5799,10 +5799,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1.323525</v>
+        <v>1.318425</v>
       </c>
       <c r="D179" t="n">
-        <v>1.323375</v>
+        <v>1.318125</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -5816,42 +5816,42 @@
         <v>0.87</v>
       </c>
       <c r="H179" t="n">
-        <v>68.83999999999992</v>
+        <v>80.05999999999999</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>46012.79930555556</v>
+        <v>46013.525</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1.322705</v>
+        <v>1.317945</v>
       </c>
       <c r="D180" t="n">
-        <v>1.321945</v>
+        <v>1.317725</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H180" t="n">
-        <v>69.70999999999992</v>
+        <v>79.05999999999999</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>46012.80138888889</v>
+        <v>46013.52569444444</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -5859,10 +5859,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1.321905</v>
+        <v>1.317665</v>
       </c>
       <c r="D181" t="n">
-        <v>1.321365</v>
+        <v>1.317415</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
         <v>0.87</v>
       </c>
       <c r="H181" t="n">
-        <v>70.57999999999993</v>
+        <v>79.92999999999999</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>46012.80972222222</v>
+        <v>46013.53194444445</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1.319965</v>
+        <v>1.316735</v>
       </c>
       <c r="D182" t="n">
-        <v>1.319605</v>
+        <v>1.316575</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -5906,23 +5906,23 @@
         <v>0.87</v>
       </c>
       <c r="H182" t="n">
-        <v>71.44999999999993</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>46012.81111111111</v>
+        <v>46013.53541666667</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1.319675</v>
+        <v>1.315975</v>
       </c>
       <c r="D183" t="n">
-        <v>1.319725</v>
+        <v>1.315745</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -5936,23 +5936,23 @@
         <v>0.87</v>
       </c>
       <c r="H183" t="n">
-        <v>72.31999999999994</v>
+        <v>81.67</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>46012.81666666667</v>
+        <v>46013.53680555556</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1.320425</v>
+        <v>1.315675</v>
       </c>
       <c r="D184" t="n">
-        <v>1.320155</v>
+        <v>1.316155</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5966,12 +5966,12 @@
         <v>0.87</v>
       </c>
       <c r="H184" t="n">
-        <v>73.18999999999994</v>
+        <v>82.54000000000001</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>46012.825</v>
+        <v>46013.54583333333</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5979,10 +5979,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1.322925</v>
+        <v>1.317435</v>
       </c>
       <c r="D185" t="n">
-        <v>1.322775</v>
+        <v>1.316625</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5996,23 +5996,23 @@
         <v>-1</v>
       </c>
       <c r="H185" t="n">
-        <v>72.18999999999994</v>
+        <v>81.54000000000001</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>46012.82569444444</v>
+        <v>46013.54722222222</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1.322765</v>
+        <v>1.317095</v>
       </c>
       <c r="D186" t="n">
-        <v>1.322225</v>
+        <v>1.317535</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -6026,12 +6026,12 @@
         <v>0.87</v>
       </c>
       <c r="H186" t="n">
-        <v>73.05999999999995</v>
+        <v>82.41000000000001</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>46012.82777777778</v>
+        <v>46013.55</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -6039,29 +6039,29 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1.321895</v>
+        <v>1.318045</v>
       </c>
       <c r="D187" t="n">
-        <v>1.321905</v>
+        <v>1.317765</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H187" t="n">
-        <v>72.05999999999995</v>
+        <v>83.28000000000002</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>46012.83125</v>
+        <v>46013.55347222222</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -6069,10 +6069,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1.322815</v>
+        <v>1.318605</v>
       </c>
       <c r="D188" t="n">
-        <v>1.322845</v>
+        <v>1.318765</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -6086,42 +6086,42 @@
         <v>0.87</v>
       </c>
       <c r="H188" t="n">
-        <v>72.92999999999995</v>
+        <v>84.15000000000002</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>46012.83472222222</v>
+        <v>46013.5625</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1.322905</v>
+        <v>1.318375</v>
       </c>
       <c r="D189" t="n">
-        <v>1.322555</v>
+        <v>1.317985</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H189" t="n">
-        <v>73.79999999999995</v>
+        <v>83.15000000000002</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>46012.83680555555</v>
+        <v>46013.56666666667</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -6129,10 +6129,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1.322885</v>
+        <v>1.317705</v>
       </c>
       <c r="D190" t="n">
-        <v>1.322945</v>
+        <v>1.317825</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -6146,12 +6146,12 @@
         <v>0.87</v>
       </c>
       <c r="H190" t="n">
-        <v>74.66999999999996</v>
+        <v>84.02000000000002</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>46012.83958333333</v>
+        <v>46013.56944444445</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -6159,10 +6159,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1.323105</v>
+        <v>1.317735</v>
       </c>
       <c r="D191" t="n">
-        <v>1.323325</v>
+        <v>1.317905</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -6176,23 +6176,23 @@
         <v>0.87</v>
       </c>
       <c r="H191" t="n">
-        <v>75.53999999999996</v>
+        <v>84.89000000000003</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>46012.84791666667</v>
+        <v>46013.57152777778</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1.324565</v>
+        <v>1.317795</v>
       </c>
       <c r="D192" t="n">
-        <v>1.324335</v>
+        <v>1.317825</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -6206,12 +6206,12 @@
         <v>0.87</v>
       </c>
       <c r="H192" t="n">
-        <v>76.40999999999997</v>
+        <v>85.76000000000003</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>46012.85277777778</v>
+        <v>46013.57361111111</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -6219,10 +6219,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1.324575</v>
+        <v>1.317785</v>
       </c>
       <c r="D193" t="n">
-        <v>1.324965</v>
+        <v>1.317855</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -6236,72 +6236,72 @@
         <v>0.87</v>
       </c>
       <c r="H193" t="n">
-        <v>77.27999999999997</v>
+        <v>86.63000000000004</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>46012.85416666666</v>
+        <v>46013.57777777778</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1.324475</v>
+        <v>1.318985</v>
       </c>
       <c r="D194" t="n">
-        <v>1.324205</v>
+        <v>1.318965</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H194" t="n">
-        <v>78.14999999999998</v>
+        <v>85.63000000000004</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>46012.85694444444</v>
+        <v>46013.58333333334</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1.324505</v>
+        <v>1.317685</v>
       </c>
       <c r="D195" t="n">
-        <v>1.324575</v>
+        <v>1.317775</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H195" t="n">
-        <v>77.14999999999998</v>
+        <v>86.50000000000004</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>46012.85763888889</v>
+        <v>46013.58541666667</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -6309,29 +6309,29 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1.324675</v>
+        <v>1.317985</v>
       </c>
       <c r="D196" t="n">
-        <v>1.324875</v>
+        <v>1.317415</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H196" t="n">
-        <v>78.01999999999998</v>
+        <v>85.50000000000004</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>46012.85972222222</v>
+        <v>46013.58611111111</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1.324595</v>
+        <v>1.317405</v>
       </c>
       <c r="D197" t="n">
-        <v>1.324245</v>
+        <v>1.317095</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -6356,23 +6356,23 @@
         <v>0.87</v>
       </c>
       <c r="H197" t="n">
-        <v>78.88999999999999</v>
+        <v>86.37000000000005</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>46012.86180555556</v>
+        <v>46013.59236111111</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1.324615</v>
+        <v>1.318155</v>
       </c>
       <c r="D198" t="n">
-        <v>1.324645</v>
+        <v>1.317615</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -6386,23 +6386,23 @@
         <v>0.87</v>
       </c>
       <c r="H198" t="n">
-        <v>79.75999999999999</v>
+        <v>87.24000000000005</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>46012.86805555555</v>
+        <v>46013.59861111111</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1.323685</v>
+        <v>1.317455</v>
       </c>
       <c r="D199" t="n">
-        <v>1.323415</v>
+        <v>1.317495</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -6416,23 +6416,23 @@
         <v>0.87</v>
       </c>
       <c r="H199" t="n">
-        <v>80.63</v>
+        <v>88.11000000000006</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>46012.87083333333</v>
+        <v>46013.60416666666</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1.323255</v>
+        <v>1.315735</v>
       </c>
       <c r="D200" t="n">
-        <v>1.323775</v>
+        <v>1.315535</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -6446,12 +6446,12 @@
         <v>0.87</v>
       </c>
       <c r="H200" t="n">
-        <v>81.5</v>
+        <v>88.98000000000006</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>46012.87291666667</v>
+        <v>46013.60694444444</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -6459,40 +6459,40 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1.323155</v>
+        <v>1.315445</v>
       </c>
       <c r="D201" t="n">
-        <v>1.323045</v>
+        <v>1.315715</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H201" t="n">
-        <v>82.37</v>
+        <v>87.98000000000006</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>46012.875</v>
+        <v>46013.61111111111</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1.322465</v>
+        <v>1.316705</v>
       </c>
       <c r="D202" t="n">
-        <v>1.322125</v>
+        <v>1.317155</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -6506,42 +6506,42 @@
         <v>0.87</v>
       </c>
       <c r="H202" t="n">
-        <v>83.24000000000001</v>
+        <v>88.85000000000007</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>46012.87638888889</v>
+        <v>46013.61458333334</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1.322295</v>
+        <v>1.316435</v>
       </c>
       <c r="D203" t="n">
-        <v>1.322465</v>
+        <v>1.316715</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G203" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H203" t="n">
-        <v>84.11000000000001</v>
+        <v>87.85000000000007</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>46012.87916666667</v>
+        <v>46013.62013888889</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -6549,10 +6549,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1.322295</v>
+        <v>1.318165</v>
       </c>
       <c r="D204" t="n">
-        <v>1.322595</v>
+        <v>1.318425</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -6566,12 +6566,12 @@
         <v>0.87</v>
       </c>
       <c r="H204" t="n">
-        <v>84.98000000000002</v>
+        <v>88.72000000000007</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>46012.88125</v>
+        <v>46013.62986111111</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -6579,29 +6579,29 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1.323325</v>
+        <v>1.317835</v>
       </c>
       <c r="D205" t="n">
-        <v>1.323305</v>
+        <v>1.317975</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>LOSS</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>-1</v>
+        <v>0.87</v>
       </c>
       <c r="H205" t="n">
-        <v>83.98000000000002</v>
+        <v>89.59000000000007</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>46012.88541666666</v>
+        <v>46013.63125</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -6609,10 +6609,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1.323285</v>
+        <v>1.317565</v>
       </c>
       <c r="D206" t="n">
-        <v>1.322735</v>
+        <v>1.317465</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -6626,12 +6626,12 @@
         <v>0.87</v>
       </c>
       <c r="H206" t="n">
-        <v>84.85000000000002</v>
+        <v>90.46000000000008</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>46012.8875</v>
+        <v>46013.63333333333</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -6639,10 +6639,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1.323475</v>
+        <v>1.318205</v>
       </c>
       <c r="D207" t="n">
-        <v>1.323825</v>
+        <v>1.318385</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -6656,23 +6656,23 @@
         <v>0.87</v>
       </c>
       <c r="H207" t="n">
-        <v>85.72000000000003</v>
+        <v>91.33000000000008</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>46012.88958333333</v>
+        <v>46013.63541666666</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1.323295</v>
+        <v>1.318355</v>
       </c>
       <c r="D208" t="n">
-        <v>1.322995</v>
+        <v>1.318755</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -6686,12 +6686,12 @@
         <v>0.87</v>
       </c>
       <c r="H208" t="n">
-        <v>86.59000000000003</v>
+        <v>92.20000000000009</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>46012.89236111111</v>
+        <v>46013.63888888889</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -6699,10 +6699,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1.322285</v>
+        <v>1.318685</v>
       </c>
       <c r="D209" t="n">
-        <v>1.322755</v>
+        <v>1.319085</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -6716,23 +6716,23 @@
         <v>0.87</v>
       </c>
       <c r="H209" t="n">
-        <v>87.46000000000004</v>
+        <v>93.07000000000009</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>46012.89444444444</v>
+        <v>46013.64583333334</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1.322565</v>
+        <v>1.320425</v>
       </c>
       <c r="D210" t="n">
-        <v>1.322555</v>
+        <v>1.320595</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -6746,12 +6746,12 @@
         <v>0.87</v>
       </c>
       <c r="H210" t="n">
-        <v>88.33000000000004</v>
+        <v>93.9400000000001</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>46012.89652777778</v>
+        <v>46013.65486111111</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -6759,10 +6759,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1.322525</v>
+        <v>1.320555</v>
       </c>
       <c r="D211" t="n">
-        <v>1.322925</v>
+        <v>1.320625</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -6776,23 +6776,23 @@
         <v>0.87</v>
       </c>
       <c r="H211" t="n">
-        <v>89.20000000000005</v>
+        <v>94.8100000000001</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>46012.89930555555</v>
+        <v>46013.65763888889</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1.323885</v>
+        <v>1.320965</v>
       </c>
       <c r="D212" t="n">
-        <v>1.324115</v>
+        <v>1.320725</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -6806,53 +6806,53 @@
         <v>0.87</v>
       </c>
       <c r="H212" t="n">
-        <v>90.07000000000005</v>
+        <v>95.68000000000011</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>46012.90277777778</v>
+        <v>46013.66180555556</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1.323635</v>
+        <v>1.320005</v>
       </c>
       <c r="D213" t="n">
-        <v>1.323885</v>
+        <v>1.320385</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>LOSS</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G213" t="n">
-        <v>0.87</v>
+        <v>-1</v>
       </c>
       <c r="H213" t="n">
-        <v>90.94000000000005</v>
+        <v>94.68000000000011</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>46012.90486111111</v>
+        <v>46013.6625</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1.323685</v>
+        <v>1.320395</v>
       </c>
       <c r="D214" t="n">
-        <v>1.323545</v>
+        <v>1.320445</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -6866,23 +6866,23 @@
         <v>0.87</v>
       </c>
       <c r="H214" t="n">
-        <v>91.81000000000006</v>
+        <v>95.55000000000011</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>46012.90694444445</v>
+        <v>46013.66666666666</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1.323635</v>
+        <v>1.320285</v>
       </c>
       <c r="D215" t="n">
-        <v>1.324015</v>
+        <v>1.319955</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -6896,12 +6896,12 @@
         <v>0.87</v>
       </c>
       <c r="H215" t="n">
-        <v>92.68000000000006</v>
+        <v>96.42000000000012</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>46012.9125</v>
+        <v>46013.66736111111</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -6909,10 +6909,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1.323895</v>
+        <v>1.319965</v>
       </c>
       <c r="D216" t="n">
-        <v>1.323875</v>
+        <v>1.319875</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -6926,23 +6926,23 @@
         <v>0.87</v>
       </c>
       <c r="H216" t="n">
-        <v>93.55000000000007</v>
+        <v>97.29000000000012</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>46012.91458333333</v>
+        <v>46013.66875</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1.323725</v>
+        <v>1.320135</v>
       </c>
       <c r="D217" t="n">
-        <v>1.324115</v>
+        <v>1.319485</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -6956,23 +6956,23 @@
         <v>-1</v>
       </c>
       <c r="H217" t="n">
-        <v>92.55000000000007</v>
+        <v>96.29000000000012</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>46012.91527777778</v>
+        <v>46013.66944444444</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>CALL</t>
+          <t>PUT</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1.324055</v>
+        <v>1.319425</v>
       </c>
       <c r="D218" t="n">
-        <v>1.323535</v>
+        <v>1.319645</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -6986,23 +6986,23 @@
         <v>-1</v>
       </c>
       <c r="H218" t="n">
-        <v>91.55000000000007</v>
+        <v>95.29000000000012</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>46012.91597222222</v>
+        <v>46013.67222222222</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>PUT</t>
+          <t>CALL</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1.323545</v>
+        <v>1.319485</v>
       </c>
       <c r="D219" t="n">
-        <v>1.323365</v>
+        <v>1.319925</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -7016,187 +7016,7 @@
         <v>0.87</v>
       </c>
       <c r="H219" t="n">
-        <v>92.42000000000007</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
-        <v>46012.91736111111</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v>1.323655</v>
-      </c>
-      <c r="D220" t="n">
-        <v>1.324085</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F220" t="n">
-        <v>0</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H220" t="n">
-        <v>93.29000000000008</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
-        <v>46012.91944444444</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v>1.324065</v>
-      </c>
-      <c r="D221" t="n">
-        <v>1.323775</v>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F221" t="n">
-        <v>0</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H221" t="n">
-        <v>94.16000000000008</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
-        <v>46012.92361111111</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
-        <v>1.322685</v>
-      </c>
-      <c r="D222" t="n">
-        <v>1.322865</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="F222" t="n">
-        <v>1</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H222" t="n">
-        <v>93.16000000000008</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
-        <v>46012.92777777778</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>CALL</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v>1.322265</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1.322875</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F223" t="n">
-        <v>0</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H223" t="n">
-        <v>94.03000000000009</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
-        <v>46012.92916666667</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>1.322295</v>
-      </c>
-      <c r="D224" t="n">
-        <v>1.321825</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>WIN</t>
-        </is>
-      </c>
-      <c r="F224" t="n">
-        <v>0</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H224" t="n">
-        <v>94.90000000000009</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
-        <v>46012.93125</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>PUT</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>1.321665</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1.321845</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>LOSS</t>
-        </is>
-      </c>
-      <c r="F225" t="n">
-        <v>1</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H225" t="n">
-        <v>93.90000000000009</v>
+        <v>96.16000000000012</v>
       </c>
     </row>
   </sheetData>
